--- a/biology/Zoologie/Engoulevent_moustac/Engoulevent_moustac.xlsx
+++ b/biology/Zoologie/Engoulevent_moustac/Engoulevent_moustac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurostopodus mystacalis
 L'Engoulevent moustac (Eurostopodus mystacalis) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -512,11 +524,48 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Australie, en Indonésie, en Papouasie-Nouvelle-Guinée et aux îles Salomon.
-Taxinomie
-Jusqu'aux travaux de Cleere (2010) et Dutson (2011), Eurostopodus mystacalis était constituée de trois sous-espèces[1] et était aussi connue comme l'Engoulevent moustac. Suivant les recommandations de ces deux études, le Congrès ornithologique international, dans sa classification de référence (version 3.4, 2013), donne à chacune de ces trois sous-espèces le statut d'espèce à part entière[1]. Le taxon original est donc divisé en E. mystacalis, Eurostopodus exul et Eurostopodus nigripennis[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Engoulevent_moustac</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engoulevent_moustac</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'aux travaux de Cleere (2010) et Dutson (2011), Eurostopodus mystacalis était constituée de trois sous-espèces et était aussi connue comme l'Engoulevent moustac. Suivant les recommandations de ces deux études, le Congrès ornithologique international, dans sa classification de référence (version 3.4, 2013), donne à chacune de ces trois sous-espèces le statut d'espèce à part entière. Le taxon original est donc divisé en E. mystacalis, Eurostopodus exul et Eurostopodus nigripennis.
 </t>
         </is>
       </c>
